--- a/Результаты исследований/ГПСЧ/Результаты.xlsx
+++ b/Результаты исследований/ГПСЧ/Результаты.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="№1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="#5" sheetId="10" r:id="rId10"/>
     <sheet name="Сводная" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -41,7 +41,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -159,6 +162,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -170,12 +176,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -288,84 +297,89 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.2551957261844571E-2</c:v>
+                  <c:v>7.4672698974598273E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8748259683404332E-3</c:v>
+                  <c:v>2.9961585998535267E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2293428822677541E-2</c:v>
+                  <c:v>3.6416053771972656E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3659356651779878E-3</c:v>
+                  <c:v>1.5032768249511747E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7655700466760545E-2</c:v>
+                  <c:v>8.449554443359375E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2278184480234238E-2</c:v>
+                  <c:v>7.2174072265625104E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7073277702757191E-2</c:v>
+                  <c:v>3.2997131347656163E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1968033803334444E-2</c:v>
+                  <c:v>2.3670196533203151E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.4451797126410845E-2</c:v>
+                  <c:v>1.0175704956054714E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0600728694570384E-2</c:v>
+                  <c:v>1.2235641479492183E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10647985989492122</c:v>
+                  <c:v>9.8896026611328114E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12704490080055691</c:v>
+                  <c:v>2.4127960205078136E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3547880690737832E-2</c:v>
+                  <c:v>2.851486206054688E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14304993252361667</c:v>
+                  <c:v>5.7220458984375136E-7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22043010752688177</c:v>
+                  <c:v>1.7547607421874999E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.8534031413612565E-2</c:v>
+                  <c:v>2.2888183593749986E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39999999999999997</c:v>
+                  <c:v>8.1062316894531233E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3728813559322034</c:v>
+                  <c:v>3.4332275390624997E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.31034482758620685</c:v>
+                  <c:v>2.6702880859374998E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3125</c:v>
+                  <c:v>9.5367431640625085E-8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>2.2888183593749999E-6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.8</c:v>
+                  <c:v>3.8146972656250002E-7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>9.5367431640625005E-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>5.7220458984374998E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F8A-4B56-8F27-2D15F272DB61}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -424,6 +438,2177 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vector</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Сводная!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Сводная!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.50005614693495459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24742356169632249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1286275237140897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0960878704779418E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2128449685333876E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4879939534950728E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1246570719807516E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7018814327476595E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0710920373723926E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.646723389859034E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8570269105533059E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1514246104084874E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4721277932861623E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0010912636227871E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5222849903930065E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9081371267481042E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.612375872102148E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.9647005126305802E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.57952910419545E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5406856337405197E-7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3851714084351302E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7703428168702598E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9081371267481041E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.7244113802443124E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D755-4FB0-A5E5-9075FCE68EC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Сводная!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Сводная!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.49986078120813293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25028573226700634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12491692166273005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2431046172007662E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1266252125232062E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5593553597804536E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7903403136618437E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.936554373043427E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9682295088532657E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8654631551745964E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8650292883917261E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3915118493309388E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1862203909759521E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0550638928434853E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7653047699600167E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6782539293550449E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0098482991945312E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5281474651214009E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9071067379034599E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0489087058469031E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5355336895173003E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5355336895173003E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5355336895173003E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D755-4FB0-A5E5-9075FCE68EC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1933712127"/>
+        <c:axId val="1933715871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1933712127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1933715871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1933715871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1933712127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Сводная!$A$31:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Сводная!$B$31:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.9536572682166131E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.8621705706838585E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.710602051359646E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4701674672282436E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.621975601018142E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.1361406285380853E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3431675831890797E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3467294029576747E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0286252851912691E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2187397653155624E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9199762216157985E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4008723892245142E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.859074023102102E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.39726292206982E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7569802204329898E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2988319739305925E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1139104218269489E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4365530475091793E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6724223662919901E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.484014247285112E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2898160715399573E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8167894479185298E-7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5458375779637412E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.7244113802443124E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2C3-432A-917C-31CA5376A012}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1884397455"/>
+        <c:axId val="1884393295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1884397455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884393295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1884393295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1884397455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -435,9 +2620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>513448</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>75714</xdr:rowOff>
+      <xdr:colOff>494400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190024</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -455,7 +2640,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7219048" cy="3885714"/>
+          <a:ext cx="7200000" cy="3809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -467,7 +2652,136 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465828</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7171428" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>513448</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7219048" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>475352</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7180952" cy="3819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -510,7 +2824,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -542,348 +2856,64 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>456305</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>18571</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7161905" cy="3828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>465828</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>37619</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7171428" cy="3847619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>475352</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>18571</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7180952" cy="3828571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>475352</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28095</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7180952" cy="3838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>494400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7200000" cy="3809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>465828</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7171428" cy="3809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>513448</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7219048" cy="3800000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>475352</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7180952" cy="3819048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -932,7 +2962,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,7 +2997,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1178,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="N1">
-        <v>1037175</v>
+        <v>1045255</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -1209,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <v>524716</v>
+        <v>523690</v>
       </c>
       <c r="P2">
         <f>1048576 * 4</f>
@@ -1217,11 +3247,11 @@
       </c>
       <c r="Q2">
         <f>SUM(N1:N25)</f>
-        <v>2087596</v>
+        <v>2095799</v>
       </c>
       <c r="R2">
         <f>P2-Q2</f>
-        <v>2106708</v>
+        <v>2098505</v>
       </c>
     </row>
     <row r="3" spans="13:18" x14ac:dyDescent="0.25">
@@ -1229,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>260866</v>
+        <v>266814</v>
       </c>
     </row>
     <row r="4" spans="13:18" x14ac:dyDescent="0.25">
@@ -1237,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>131473</v>
+        <v>129288</v>
       </c>
     </row>
     <row r="5" spans="13:18" x14ac:dyDescent="0.25">
@@ -1245,7 +3275,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <v>66938</v>
+        <v>66792</v>
       </c>
     </row>
     <row r="6" spans="13:18" x14ac:dyDescent="0.25">
@@ -1253,7 +3283,7 @@
         <v>6</v>
       </c>
       <c r="N6">
-        <v>33263</v>
+        <v>31035</v>
       </c>
     </row>
     <row r="7" spans="13:18" x14ac:dyDescent="0.25">
@@ -1261,7 +3291,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>16736</v>
+        <v>16855</v>
       </c>
     </row>
     <row r="8" spans="13:18" x14ac:dyDescent="0.25">
@@ -1269,7 +3299,7 @@
         <v>8</v>
       </c>
       <c r="N8">
-        <v>8241</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="9" spans="13:18" x14ac:dyDescent="0.25">
@@ -1277,7 +3307,7 @@
         <v>9</v>
       </c>
       <c r="N9">
-        <v>4045</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="10" spans="13:18" x14ac:dyDescent="0.25">
@@ -1285,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="N10">
-        <v>2071</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="11" spans="13:18" x14ac:dyDescent="0.25">
@@ -1293,7 +3323,7 @@
         <v>11</v>
       </c>
       <c r="N11">
-        <v>1044</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="12" spans="13:18" x14ac:dyDescent="0.25">
@@ -1301,7 +3331,7 @@
         <v>12</v>
       </c>
       <c r="N12">
-        <v>557</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="13:18" x14ac:dyDescent="0.25">
@@ -1309,7 +3339,7 @@
         <v>13</v>
       </c>
       <c r="N13">
-        <v>193</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="13:18" x14ac:dyDescent="0.25">
@@ -1317,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="N14">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="13:18" x14ac:dyDescent="0.25">
@@ -1325,7 +3355,7 @@
         <v>15</v>
       </c>
       <c r="N15">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="13:18" x14ac:dyDescent="0.25">
@@ -1333,7 +3363,7 @@
         <v>16</v>
       </c>
       <c r="N16">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
@@ -1341,7 +3371,7 @@
         <v>17</v>
       </c>
       <c r="N17">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
@@ -1349,7 +3379,7 @@
         <v>18</v>
       </c>
       <c r="N18">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
@@ -1357,7 +3387,7 @@
         <v>19</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
@@ -1365,7 +3395,7 @@
         <v>20</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.25">
@@ -1373,7 +3403,7 @@
         <v>21</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.25">
@@ -1381,7 +3411,7 @@
         <v>22</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.25">
@@ -1397,7 +3427,7 @@
         <v>24</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="13:14" x14ac:dyDescent="0.25">
@@ -1405,12 +3435,11 @@
         <v>25</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1653,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M20:M21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,12 +3717,17 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
+        <v>1048260.4</v>
+      </c>
+      <c r="C2" s="10">
+        <f>B2/$B$29</f>
+        <v>0.50005614693495459</v>
+      </c>
+      <c r="D2" s="5">
         <f>AVERAGE(№1!$N1,№2!$N1,№3!$N1,№4!$N1,№5!$N1)</f>
-        <v>1025294.6</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+        <v>1048122.6</v>
+      </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
@@ -1701,26 +3735,34 @@
         <f>AVERAGE('#1'!$N1,'#2'!$N1,'#3'!$N1,'#4'!$N1,'#5'!$N1)</f>
         <v>1048417</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="10">
+        <f>F2/$F$29</f>
+        <v>0.49986078120813293</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <f>ABS(B2-F2) / B2</f>
-        <v>2.2551957261844571E-2</v>
+        <f>2 *ABS(B2-F2) / ($B$29 + $C$29)</f>
+        <v>7.4672698974598273E-5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
+        <v>518670.4</v>
+      </c>
+      <c r="C3" s="10">
+        <f>B3/$B$29</f>
+        <v>0.24742356169632249</v>
+      </c>
+      <c r="D3" s="5">
         <f>AVERAGE(№1!$N2,№2!$N2,№3!$N2,№4!$N2,№5!$N2)</f>
-        <v>521887.8</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+        <v>519499.4</v>
+      </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
@@ -1728,26 +3770,34 @@
         <f>AVERAGE('#1'!$N2,'#2'!$N2,'#3'!$N2,'#4'!$N2,'#5'!$N2)</f>
         <v>524953.80000000005</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G25" si="0">F3/$F$29</f>
+        <v>0.25028573226700634</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3">
         <v>2</v>
       </c>
       <c r="J3">
-        <f>ABS(B3-F3) / B3</f>
-        <v>5.8748259683404332E-3</v>
+        <f>2 *ABS(B3-F3) / ($B$29 + $C$29)</f>
+        <v>2.9961585998535267E-3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
+        <v>269640</v>
+      </c>
+      <c r="C4" s="10">
+        <f>B4/$B$29</f>
+        <v>0.1286275237140897</v>
+      </c>
+      <c r="D4" s="5">
         <f>AVERAGE(№1!$N3,№2!$N3,№3!$N3,№4!$N3,№5!$N3)</f>
-        <v>258821.2</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+        <v>268623.2</v>
+      </c>
       <c r="E4" s="4">
         <v>3</v>
       </c>
@@ -1755,26 +3805,34 @@
         <f>AVERAGE('#1'!$N3,'#2'!$N3,'#3'!$N3,'#4'!$N3,'#5'!$N3)</f>
         <v>262003</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.12491692166273005</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4">
         <v>3</v>
       </c>
       <c r="J4">
-        <f>ABS(B4-F4) / B4</f>
-        <v>1.2293428822677541E-2</v>
+        <f>2 *ABS(B4-F4) / ($B$29 + $C$29)</f>
+        <v>3.6416053771972656E-3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
+        <v>127791.4</v>
+      </c>
+      <c r="C5" s="10">
+        <f>B5/$B$29</f>
+        <v>6.0960878704779418E-2</v>
+      </c>
+      <c r="D5" s="5">
         <f>AVERAGE(№1!$N4,№2!$N4,№3!$N4,№4!$N4,№5!$N4)</f>
-        <v>131518.20000000001</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+        <v>128268.6</v>
+      </c>
       <c r="E5" s="4">
         <v>4</v>
       </c>
@@ -1782,26 +3840,34 @@
         <f>AVERAGE('#1'!$N4,'#2'!$N4,'#3'!$N4,'#4'!$N4,'#5'!$N4)</f>
         <v>130944</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>6.2431046172007662E-2</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <f>ABS(B5-F5) / B5</f>
-        <v>4.3659356651779878E-3</v>
+        <f>2 *ABS(B5-F5) / ($B$29 + $C$29)</f>
+        <v>1.5032768249511747E-3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
+        <v>67350.399999999994</v>
+      </c>
+      <c r="C6" s="10">
+        <f>B6/$B$29</f>
+        <v>3.2128449685333876E-2</v>
+      </c>
+      <c r="D6" s="5">
         <f>AVERAGE(№1!$N5,№2!$N5,№3!$N5,№4!$N5,№5!$N5)</f>
-        <v>67443.600000000006</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+        <v>67361.8</v>
+      </c>
       <c r="E6" s="4">
         <v>5</v>
       </c>
@@ -1809,26 +3875,34 @@
         <f>AVERAGE('#1'!$N5,'#2'!$N5,'#3'!$N5,'#4'!$N5,'#5'!$N5)</f>
         <v>65578.399999999994</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1266252125232062E-2</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
-        <f>ABS(B6-F6) / B6</f>
-        <v>2.7655700466760545E-2</v>
+        <f>2 *ABS(B6-F6) / ($B$29 + $C$29)</f>
+        <v>8.449554443359375E-4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
+        <v>31192.6</v>
+      </c>
+      <c r="C7" s="10">
+        <f>B7/$B$29</f>
+        <v>1.4879939534950728E-2</v>
+      </c>
+      <c r="D7" s="5">
         <f>AVERAGE(№1!$N6,№2!$N6,№3!$N6,№4!$N6,№5!$N6)</f>
-        <v>34150</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+        <v>31250.2</v>
+      </c>
       <c r="E7" s="4">
         <v>6</v>
       </c>
@@ -1836,26 +3910,34 @@
         <f>AVERAGE('#1'!$N6,'#2'!$N6,'#3'!$N6,'#4'!$N6,'#5'!$N6)</f>
         <v>32706.2</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5593553597804536E-2</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7">
-        <f>ABS(B7-F7) / B7</f>
-        <v>4.2278184480234238E-2</v>
+        <f>2 *ABS(B7-F7) / ($B$29 + $C$29)</f>
+        <v>7.2174072265625104E-4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
+        <v>17031.599999999999</v>
+      </c>
+      <c r="C8" s="10">
+        <f>B8/$B$29</f>
+        <v>8.1246570719807516E-3</v>
+      </c>
+      <c r="D8" s="5">
         <f>AVERAGE(№1!$N7,№2!$N7,№3!$N7,№4!$N7,№5!$N7)</f>
-        <v>17328.599999999999</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+        <v>17012.400000000001</v>
+      </c>
       <c r="E8" s="4">
         <v>7</v>
       </c>
@@ -1863,26 +3945,34 @@
         <f>AVERAGE('#1'!$N7,'#2'!$N7,'#3'!$N7,'#4'!$N7,'#5'!$N7)</f>
         <v>16339.6</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>7.7903403136618437E-3</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8">
-        <f>ABS(B8-F8) / B8</f>
-        <v>5.7073277702757191E-2</v>
+        <f>2 *ABS(B8-F8) / ($B$29 + $C$29)</f>
+        <v>3.2997131347656163E-4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
+        <v>7760.2</v>
+      </c>
+      <c r="C9" s="10">
+        <f>B9/$B$29</f>
+        <v>3.7018814327476595E-3</v>
+      </c>
+      <c r="D9" s="5">
         <f>AVERAGE(№1!$N8,№2!$N8,№3!$N8,№4!$N8,№5!$N8)</f>
-        <v>8709.2000000000007</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+        <v>7702.2</v>
+      </c>
       <c r="E9" s="4">
         <v>8</v>
       </c>
@@ -1890,26 +3980,34 @@
         <f>AVERAGE('#1'!$N8,'#2'!$N8,'#3'!$N8,'#4'!$N8,'#5'!$N8)</f>
         <v>8256.6</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="10">
+        <f t="shared" si="0"/>
+        <v>3.936554373043427E-3</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9">
-        <f>ABS(B9-F9) / B9</f>
-        <v>5.1968033803334444E-2</v>
+        <f>2 *ABS(B9-F9) / ($B$29 + $C$29)</f>
+        <v>2.3670196533203151E-4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
+        <v>4341.6000000000004</v>
+      </c>
+      <c r="C10" s="10">
+        <f>B10/$B$29</f>
+        <v>2.0710920373723926E-3</v>
+      </c>
+      <c r="D10" s="5">
         <f>AVERAGE(№1!$N9,№2!$N9,№3!$N9,№4!$N9,№5!$N9)</f>
-        <v>4412.6000000000004</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+        <v>4324.3999999999996</v>
+      </c>
       <c r="E10" s="4">
         <v>9</v>
       </c>
@@ -1917,26 +4015,34 @@
         <f>AVERAGE('#1'!$N9,'#2'!$N9,'#3'!$N9,'#4'!$N9,'#5'!$N9)</f>
         <v>4128.2</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9682295088532657E-3</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10">
-        <f>ABS(B10-F10) / B10</f>
-        <v>6.4451797126410845E-2</v>
+        <f>2 *ABS(B10-F10) / ($B$29 + $C$29)</f>
+        <v>1.0175704956054714E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
+        <v>1812.6</v>
+      </c>
+      <c r="C11" s="10">
+        <f>B11/$B$29</f>
+        <v>8.646723389859034E-4</v>
+      </c>
+      <c r="D11" s="5">
         <f>AVERAGE(№1!$N10,№2!$N10,№3!$N10,№4!$N10,№5!$N10)</f>
-        <v>2250.6</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+        <v>1796.6</v>
+      </c>
       <c r="E11" s="4">
         <v>10</v>
       </c>
@@ -1944,26 +4050,34 @@
         <f>AVERAGE('#1'!$N10,'#2'!$N10,'#3'!$N10,'#4'!$N10,'#5'!$N10)</f>
         <v>2069.1999999999998</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>9.8654631551745964E-4</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11">
-        <f>ABS(B11-F11) / B11</f>
-        <v>8.0600728694570384E-2</v>
+        <f>2 *ABS(B11-F11) / ($B$29 + $C$29)</f>
+        <v>1.2235641479492183E-4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
+        <v>1227.8</v>
+      </c>
+      <c r="C12" s="10">
+        <f>B12/$B$29</f>
+        <v>5.8570269105533059E-4</v>
+      </c>
+      <c r="D12" s="5">
         <f>AVERAGE(№1!$N11,№2!$N11,№3!$N11,№4!$N11,№5!$N11)</f>
-        <v>1142</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+        <v>1244.2</v>
+      </c>
       <c r="E12" s="4">
         <v>11</v>
       </c>
@@ -1971,26 +4085,34 @@
         <f>AVERAGE('#1'!$N11,'#2'!$N11,'#3'!$N11,'#4'!$N11,'#5'!$N11)</f>
         <v>1020.4</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>4.8650292883917261E-4</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12">
-        <f>ABS(B12-F12) / B12</f>
-        <v>0.10647985989492122</v>
+        <f>2 *ABS(B12-F12) / ($B$29 + $C$29)</f>
+        <v>9.8896026611328114E-5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
+        <v>451</v>
+      </c>
+      <c r="C13" s="10">
+        <f>B13/$B$29</f>
+        <v>2.1514246104084874E-4</v>
+      </c>
+      <c r="D13" s="5">
         <f>AVERAGE(№1!$N12,№2!$N12,№3!$N12,№4!$N12,№5!$N12)</f>
-        <v>574.6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+        <v>439.8</v>
+      </c>
       <c r="E13" s="4">
         <v>12</v>
       </c>
@@ -1998,26 +4120,34 @@
         <f>AVERAGE('#1'!$N12,'#2'!$N12,'#3'!$N12,'#4'!$N12,'#5'!$N12)</f>
         <v>501.6</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3915118493309388E-4</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13">
-        <f>ABS(B13-F13) / B13</f>
-        <v>0.12704490080055691</v>
+        <f>2 *ABS(B13-F13) / ($B$29 + $C$29)</f>
+        <v>2.4127960205078136E-5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
+        <v>308.60000000000002</v>
+      </c>
+      <c r="C14" s="10">
+        <f>B14/$B$29</f>
+        <v>1.4721277932861623E-4</v>
+      </c>
+      <c r="D14" s="5">
         <f>AVERAGE(№1!$N13,№2!$N13,№3!$N13,№4!$N13,№5!$N13)</f>
-        <v>254.8</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+        <v>302.2</v>
+      </c>
       <c r="E14" s="4">
         <v>13</v>
       </c>
@@ -2025,26 +4155,34 @@
         <f>AVERAGE('#1'!$N13,'#2'!$N13,'#3'!$N13,'#4'!$N13,'#5'!$N13)</f>
         <v>248.8</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1862203909759521E-4</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14">
-        <f>ABS(B14-F14) / B14</f>
-        <v>2.3547880690737832E-2</v>
+        <f>2 *ABS(B14-F14) / ($B$29 + $C$29)</f>
+        <v>2.851486206054688E-5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
+        <v>125.8</v>
+      </c>
+      <c r="C15" s="10">
+        <f>B15/$B$29</f>
+        <v>6.0010912636227871E-5</v>
+      </c>
+      <c r="D15" s="5">
         <f>AVERAGE(№1!$N14,№2!$N14,№3!$N14,№4!$N14,№5!$N14)</f>
-        <v>148.19999999999999</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+        <v>127</v>
+      </c>
       <c r="E15" s="4">
         <v>14</v>
       </c>
@@ -2052,26 +4190,34 @@
         <f>AVERAGE('#1'!$N14,'#2'!$N14,'#3'!$N14,'#4'!$N14,'#5'!$N14)</f>
         <v>127</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="10">
+        <f t="shared" si="0"/>
+        <v>6.0550638928434853E-5</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15">
-        <f>ABS(B15-F15) / B15</f>
-        <v>0.14304993252361667</v>
+        <f>2 *ABS(B15-F15) / ($B$29 + $C$29)</f>
+        <v>5.7220458984375136E-7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
+        <v>94.8</v>
+      </c>
+      <c r="C16" s="10">
+        <f>B16/$B$29</f>
+        <v>4.5222849903930065E-5</v>
+      </c>
+      <c r="D16" s="5">
         <f>AVERAGE(№1!$N15,№2!$N15,№3!$N15,№4!$N15,№5!$N15)</f>
-        <v>74.400000000000006</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+        <v>95.8</v>
+      </c>
       <c r="E16" s="4">
         <v>15</v>
       </c>
@@ -2079,26 +4225,34 @@
         <f>AVERAGE('#1'!$N15,'#2'!$N15,'#3'!$N15,'#4'!$N15,'#5'!$N15)</f>
         <v>58</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>2.7653047699600167E-5</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16">
-        <f>ABS(B16-F16) / B16</f>
-        <v>0.22043010752688177</v>
+        <f>2 *ABS(B16-F16) / ($B$29 + $C$29)</f>
+        <v>1.7547607421874999E-5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10">
+        <f>B17/$B$29</f>
+        <v>1.9081371267481042E-5</v>
+      </c>
+      <c r="D17" s="5">
         <f>AVERAGE(№1!$N16,№2!$N16,№3!$N16,№4!$N16,№5!$N16)</f>
-        <v>38.200000000000003</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+        <v>44.2</v>
+      </c>
       <c r="E17" s="4">
         <v>16</v>
       </c>
@@ -2106,26 +4260,34 @@
         <f>AVERAGE('#1'!$N16,'#2'!$N16,'#3'!$N16,'#4'!$N16,'#5'!$N16)</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6782539293550449E-5</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17">
-        <f>ABS(B17-F17) / B17</f>
-        <v>7.8534031413612565E-2</v>
+        <f>2 *ABS(B17-F17) / ($B$29 + $C$29)</f>
+        <v>2.2888183593749986E-6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C18" s="10">
+        <f>B18/$B$29</f>
+        <v>1.612375872102148E-5</v>
+      </c>
+      <c r="D18" s="5">
         <f>AVERAGE(№1!$N17,№2!$N17,№3!$N17,№4!$N17,№5!$N17)</f>
-        <v>28</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+        <v>33.6</v>
+      </c>
       <c r="E18" s="4">
         <v>17</v>
       </c>
@@ -2133,26 +4295,34 @@
         <f>AVERAGE('#1'!$N17,'#2'!$N17,'#3'!$N17,'#4'!$N17,'#5'!$N17)</f>
         <v>16.8</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="10">
+        <f t="shared" si="0"/>
+        <v>8.0098482991945312E-6</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18">
-        <f>ABS(B18-F18) / B18</f>
-        <v>0.39999999999999997</v>
+        <f>2 *ABS(B18-F18) / ($B$29 + $C$29)</f>
+        <v>8.1062316894531233E-6</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
+        <v>14.6</v>
+      </c>
+      <c r="C19" s="10">
+        <f>B19/$B$29</f>
+        <v>6.9647005126305802E-6</v>
+      </c>
+      <c r="D19" s="5">
         <f>AVERAGE(№1!$N18,№2!$N18,№3!$N18,№4!$N18,№5!$N18)</f>
-        <v>11.8</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+        <v>16.399999999999999</v>
+      </c>
       <c r="E19" s="4">
         <v>18</v>
       </c>
@@ -2160,26 +4330,34 @@
         <f>AVERAGE('#1'!$N18,'#2'!$N18,'#3'!$N18,'#4'!$N18,'#5'!$N18)</f>
         <v>7.4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="10">
+        <f t="shared" si="0"/>
+        <v>3.5281474651214009E-6</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19">
-        <f>ABS(B19-F19) / B19</f>
-        <v>0.3728813559322034</v>
+        <f>2 *ABS(B19-F19) / ($B$29 + $C$29)</f>
+        <v>3.4332275390624997E-6</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
+        <v>9.6</v>
+      </c>
+      <c r="C20" s="10">
+        <f>B20/$B$29</f>
+        <v>4.57952910419545E-6</v>
+      </c>
+      <c r="D20" s="5">
         <f>AVERAGE(№1!$N19,№2!$N19,№3!$N19,№4!$N19,№5!$N19)</f>
-        <v>5.8</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+        <v>10.8</v>
+      </c>
       <c r="E20" s="4">
         <v>19</v>
       </c>
@@ -2187,26 +4365,34 @@
         <f>AVERAGE('#1'!$N19,'#2'!$N19,'#3'!$N19,'#4'!$N19,'#5'!$N19)</f>
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9071067379034599E-6</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20">
-        <f>ABS(B20-F20) / B20</f>
-        <v>0.31034482758620685</v>
+        <f>2 *ABS(B20-F20) / ($B$29 + $C$29)</f>
+        <v>2.6702880859374998E-6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <f>B21/$B$29</f>
+        <v>9.5406856337405197E-7</v>
+      </c>
+      <c r="D21" s="5">
         <f>AVERAGE(№1!$N20,№2!$N20,№3!$N20,№4!$N20,№5!$N20)</f>
-        <v>3.2</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+        <v>2</v>
+      </c>
       <c r="E21" s="4">
         <v>20</v>
       </c>
@@ -2214,26 +4400,34 @@
         <f>AVERAGE('#1'!$N20,'#2'!$N20,'#3'!$N20,'#4'!$N20,'#5'!$N20)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0489087058469031E-6</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21">
-        <f>ABS(B21-F21) / B21</f>
-        <v>0.3125</v>
+        <f>2 *ABS(B21-F21) / ($B$29 + $C$29)</f>
+        <v>9.5367431640625085E-8</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="10">
+        <f>B22/$B$29</f>
+        <v>2.3851714084351302E-6</v>
+      </c>
+      <c r="D22" s="5">
         <f>AVERAGE(№1!$N21,№2!$N21,№3!$N21,№4!$N21,№5!$N21)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+        <v>5.6</v>
+      </c>
       <c r="E22" s="4">
         <v>21</v>
       </c>
@@ -2241,26 +4435,34 @@
         <f>AVERAGE('#1'!$N21,'#2'!$N21,'#3'!$N21,'#4'!$N21,'#5'!$N21)</f>
         <v>0.2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="10">
+        <f t="shared" si="0"/>
+        <v>9.5355336895173003E-8</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22">
-        <f>ABS(B22-F22) / B22</f>
-        <v>0.90909090909090906</v>
+        <f>2 *ABS(B22-F22) / ($B$29 + $C$29)</f>
+        <v>2.2888183593749999E-6</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <f>B23/$B$29</f>
+        <v>4.7703428168702598E-7</v>
+      </c>
+      <c r="D23" s="5">
         <f>AVERAGE(№1!$N22,№2!$N22,№3!$N22,№4!$N22,№5!$N22)</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+        <v>0.8</v>
+      </c>
       <c r="E23" s="4">
         <v>22</v>
       </c>
@@ -2268,26 +4470,34 @@
         <f>AVERAGE('#1'!$N22,'#2'!$N22,'#3'!$N22,'#4'!$N22,'#5'!$N22)</f>
         <v>0.2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="10">
+        <f t="shared" si="0"/>
+        <v>9.5355336895173003E-8</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23">
-        <f>ABS(B23-F23) / B23</f>
-        <v>0.8</v>
+        <f>2 *ABS(B23-F23) / ($B$29 + $C$29)</f>
+        <v>3.8146972656250002E-7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="10">
+        <f>B24/$B$29</f>
+        <v>1.9081371267481041E-7</v>
+      </c>
+      <c r="D24" s="5">
         <f>AVERAGE(№1!$N23,№2!$N23,№3!$N23,№4!$N23,№5!$N23)</f>
-        <v>0.2</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+        <v>0.4</v>
+      </c>
       <c r="E24" s="4">
         <v>23</v>
       </c>
@@ -2295,26 +4505,34 @@
         <f>AVERAGE('#1'!$N23,'#2'!$N23,'#3'!$N23,'#4'!$N23,'#5'!$N23)</f>
         <v>0.2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="10">
+        <f t="shared" si="0"/>
+        <v>9.5355336895173003E-8</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24">
-        <f>ABS(B24-F24) / B24</f>
-        <v>0</v>
+        <f>2 *ABS(B24-F24) / ($B$29 + $C$29)</f>
+        <v>9.5367431640625005E-8</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <f>B25/$B$29</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
         <f>AVERAGE(№1!$N24,№2!$N24,№3!$N24,№4!$N24,№5!$N24)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+        <v>0.2</v>
+      </c>
       <c r="E25" s="4">
         <v>24</v>
       </c>
@@ -2322,12 +4540,16 @@
         <f>AVERAGE('#1'!$N24,'#2'!$N24,'#3'!$N24,'#4'!$N24,'#5'!$N24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25">
+        <f>2 *ABS(B25-F25) / ($B$29 + $C$29)</f>
         <v>0</v>
       </c>
     </row>
@@ -2335,12 +4557,17 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
+        <v>1.2</v>
+      </c>
+      <c r="C26" s="10">
+        <f>B26/$B$29</f>
+        <v>5.7244113802443124E-7</v>
+      </c>
+      <c r="D26" s="5">
         <f>AVERAGE(№1!$N25,№2!$N25,№3!$N25,№4!$N25,№5!$N25)</f>
-        <v>0.2</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+        <v>1</v>
+      </c>
       <c r="E26" s="4">
         <v>25</v>
       </c>
@@ -2348,24 +4575,29 @@
         <f>AVERAGE('#1'!$N25,'#2'!$N25,'#3'!$N25,'#4'!$N25,'#5'!$N25)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="10">
+        <f>F26/$F$29</f>
+        <v>0</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26">
-        <f>ABS(B26-F26) / B26</f>
-        <v>1</v>
+        <f>2 *ABS(B26-F26) / ($B$29 + $C$29)</f>
+        <v>5.7220458984374998E-7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2396,16 +4628,16 @@
         <v>4194304</v>
       </c>
       <c r="B29" s="8">
-        <f>SUM(B2:B26)</f>
-        <v>2074101</v>
+        <f>SUM(D2:D26)</f>
+        <v>2096285.4</v>
       </c>
       <c r="C29" s="8">
         <f>A29-B29</f>
-        <v>2120203</v>
+        <v>2098018.6</v>
       </c>
       <c r="D29" s="9">
         <f>B29/A29</f>
-        <v>0.49450421333312988</v>
+        <v>0.49979338645935056</v>
       </c>
       <c r="E29" s="7">
         <f>1048576 * 4</f>
@@ -2422,6 +4654,231 @@
       <c r="H29" s="9">
         <f>F29/E29</f>
         <v>0.50006341934204113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12">
+        <f>C2-G2</f>
+        <v>1.9536572682166131E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="12">
+        <f t="shared" ref="B32:B55" si="1">C3-G3</f>
+        <v>-2.8621705706838585E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="12">
+        <f t="shared" si="1"/>
+        <v>3.710602051359646E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.4701674672282436E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="12">
+        <f t="shared" si="1"/>
+        <v>8.621975601018142E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="12">
+        <f t="shared" si="1"/>
+        <v>-7.1361406285380853E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" s="12">
+        <f t="shared" si="1"/>
+        <v>3.3431675831890797E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.3467294029576747E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0286252851912691E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.2187397653155624E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41" s="12">
+        <f t="shared" si="1"/>
+        <v>9.9199762216157985E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.4008723892245142E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43" s="12">
+        <f t="shared" si="1"/>
+        <v>2.859074023102102E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" s="12">
+        <f t="shared" si="1"/>
+        <v>-5.39726292206982E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45" s="12">
+        <f t="shared" si="1"/>
+        <v>1.7569802204329898E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46" s="12">
+        <f t="shared" si="1"/>
+        <v>2.2988319739305925E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47" s="12">
+        <f t="shared" si="1"/>
+        <v>8.1139104218269489E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48" s="12">
+        <f t="shared" si="1"/>
+        <v>3.4365530475091793E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49" s="12">
+        <f t="shared" si="1"/>
+        <v>2.6724223662919901E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50" s="12">
+        <f t="shared" si="1"/>
+        <v>-9.484014247285112E-8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>21</v>
+      </c>
+      <c r="B51" s="12">
+        <f t="shared" si="1"/>
+        <v>2.2898160715399573E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>22</v>
+      </c>
+      <c r="B52" s="12">
+        <f t="shared" si="1"/>
+        <v>3.8167894479185298E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>23</v>
+      </c>
+      <c r="B53" s="12">
+        <f t="shared" si="1"/>
+        <v>9.5458375779637412E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>25</v>
+      </c>
+      <c r="B55" s="12">
+        <f t="shared" si="1"/>
+        <v>5.7244113802443124E-7</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +4892,7 @@
   <dimension ref="M1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="N1" sqref="N1:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="N1">
-        <v>1039333</v>
+        <v>1049161</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -2462,7 +4919,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <v>521481</v>
+        <v>517817</v>
       </c>
       <c r="P2">
         <f>1048576 * 4</f>
@@ -2470,11 +4927,11 @@
       </c>
       <c r="Q2">
         <f>SUM(N1:N25)</f>
-        <v>2087856</v>
+        <v>2096882</v>
       </c>
       <c r="R2">
         <f>P2-Q2</f>
-        <v>2106448</v>
+        <v>2097422</v>
       </c>
     </row>
     <row r="3" spans="13:18" x14ac:dyDescent="0.25">
@@ -2482,7 +4939,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>262407</v>
+        <v>270841</v>
       </c>
     </row>
     <row r="4" spans="13:18" x14ac:dyDescent="0.25">
@@ -2490,7 +4947,7 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>131367</v>
+        <v>126672</v>
       </c>
     </row>
     <row r="5" spans="13:18" x14ac:dyDescent="0.25">
@@ -2498,7 +4955,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <v>66697</v>
+        <v>67483</v>
       </c>
     </row>
     <row r="6" spans="13:18" x14ac:dyDescent="0.25">
@@ -2506,7 +4963,7 @@
         <v>6</v>
       </c>
       <c r="N6">
-        <v>33201</v>
+        <v>31380</v>
       </c>
     </row>
     <row r="7" spans="13:18" x14ac:dyDescent="0.25">
@@ -2514,7 +4971,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>16829</v>
+        <v>17252</v>
       </c>
     </row>
     <row r="8" spans="13:18" x14ac:dyDescent="0.25">
@@ -2522,7 +4979,7 @@
         <v>8</v>
       </c>
       <c r="N8">
-        <v>8272</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="9" spans="13:18" x14ac:dyDescent="0.25">
@@ -2530,7 +4987,7 @@
         <v>9</v>
       </c>
       <c r="N9">
-        <v>4101</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="10" spans="13:18" x14ac:dyDescent="0.25">
@@ -2538,7 +4995,7 @@
         <v>10</v>
       </c>
       <c r="N10">
-        <v>2088</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="11" spans="13:18" x14ac:dyDescent="0.25">
@@ -2546,7 +5003,7 @@
         <v>11</v>
       </c>
       <c r="N11">
-        <v>1054</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="12" spans="13:18" x14ac:dyDescent="0.25">
@@ -2554,7 +5011,7 @@
         <v>12</v>
       </c>
       <c r="N12">
-        <v>516</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="13:18" x14ac:dyDescent="0.25">
@@ -2562,7 +5019,7 @@
         <v>13</v>
       </c>
       <c r="N13">
-        <v>249</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="13:18" x14ac:dyDescent="0.25">
@@ -2570,7 +5027,7 @@
         <v>14</v>
       </c>
       <c r="N14">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="13:18" x14ac:dyDescent="0.25">
@@ -2578,7 +5035,7 @@
         <v>15</v>
       </c>
       <c r="N15">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="13:18" x14ac:dyDescent="0.25">
@@ -2586,7 +5043,7 @@
         <v>16</v>
       </c>
       <c r="N16">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
@@ -2594,7 +5051,7 @@
         <v>17</v>
       </c>
       <c r="N17">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
@@ -2602,7 +5059,7 @@
         <v>18</v>
       </c>
       <c r="N18">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
@@ -2610,7 +5067,7 @@
         <v>19</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
@@ -2618,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.25">
@@ -2626,7 +5083,7 @@
         <v>21</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.25">
@@ -2634,7 +5091,7 @@
         <v>22</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.25">
@@ -2642,7 +5099,7 @@
         <v>23</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="13:14" x14ac:dyDescent="0.25">
@@ -2658,12 +5115,11 @@
         <v>25</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2672,7 +5128,7 @@
   <dimension ref="M1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="N1">
-        <v>1015030</v>
+        <v>1041340</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -2699,7 +5155,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <v>523852</v>
+        <v>526681</v>
       </c>
       <c r="P2">
         <f>1048576 * 4</f>
@@ -2707,11 +5163,11 @@
       </c>
       <c r="Q2">
         <f>SUM(N1:N25)</f>
-        <v>2063196</v>
+        <v>2097020</v>
       </c>
       <c r="R2">
         <f>P2-Q2</f>
-        <v>2131108</v>
+        <v>2097284</v>
       </c>
     </row>
     <row r="3" spans="13:18" x14ac:dyDescent="0.25">
@@ -2719,7 +5175,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>253407</v>
+        <v>271879</v>
       </c>
     </row>
     <row r="4" spans="13:18" x14ac:dyDescent="0.25">
@@ -2727,7 +5183,7 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>130666</v>
+        <v>127690</v>
       </c>
     </row>
     <row r="5" spans="13:18" x14ac:dyDescent="0.25">
@@ -2735,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <v>68244</v>
+        <v>65972</v>
       </c>
     </row>
     <row r="6" spans="13:18" x14ac:dyDescent="0.25">
@@ -2743,7 +5199,7 @@
         <v>6</v>
       </c>
       <c r="N6">
-        <v>35166</v>
+        <v>31207</v>
       </c>
     </row>
     <row r="7" spans="13:18" x14ac:dyDescent="0.25">
@@ -2751,7 +5207,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>17987</v>
+        <v>16644</v>
       </c>
     </row>
     <row r="8" spans="13:18" x14ac:dyDescent="0.25">
@@ -2759,7 +5215,7 @@
         <v>8</v>
       </c>
       <c r="N8">
-        <v>9141</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="9" spans="13:18" x14ac:dyDescent="0.25">
@@ -2767,7 +5223,7 @@
         <v>9</v>
       </c>
       <c r="N9">
-        <v>4774</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="10" spans="13:18" x14ac:dyDescent="0.25">
@@ -2775,7 +5231,7 @@
         <v>10</v>
       </c>
       <c r="N10">
-        <v>2422</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="11" spans="13:18" x14ac:dyDescent="0.25">
@@ -2783,7 +5239,7 @@
         <v>11</v>
       </c>
       <c r="N11">
-        <v>1252</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="12" spans="13:18" x14ac:dyDescent="0.25">
@@ -2791,7 +5247,7 @@
         <v>12</v>
       </c>
       <c r="N12">
-        <v>613</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="13:18" x14ac:dyDescent="0.25">
@@ -2799,7 +5255,7 @@
         <v>13</v>
       </c>
       <c r="N13">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="13:18" x14ac:dyDescent="0.25">
@@ -2807,7 +5263,7 @@
         <v>14</v>
       </c>
       <c r="N14">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="13:18" x14ac:dyDescent="0.25">
@@ -2815,7 +5271,7 @@
         <v>15</v>
       </c>
       <c r="N15">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="13:18" x14ac:dyDescent="0.25">
@@ -2823,7 +5279,7 @@
         <v>16</v>
       </c>
       <c r="N16">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
@@ -2831,7 +5287,7 @@
         <v>17</v>
       </c>
       <c r="N17">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
@@ -2839,7 +5295,7 @@
         <v>18</v>
       </c>
       <c r="N18">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
@@ -2847,7 +5303,7 @@
         <v>19</v>
       </c>
       <c r="N19">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
@@ -2863,7 +5319,7 @@
         <v>21</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.25">
@@ -2879,7 +5335,7 @@
         <v>23</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="13:14" x14ac:dyDescent="0.25">
@@ -2900,7 +5356,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2909,7 +5364,7 @@
   <dimension ref="M1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="N1" sqref="N1:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="N1">
-        <v>1018889</v>
+        <v>1049543</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -2936,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <v>523628</v>
+        <v>515836</v>
       </c>
       <c r="P2">
         <f>1048576 * 4</f>
@@ -2944,11 +5399,11 @@
       </c>
       <c r="Q2">
         <f>SUM(N1:N25)</f>
-        <v>2067557</v>
+        <v>2094844</v>
       </c>
       <c r="R2">
         <f>P2-Q2</f>
-        <v>2126747</v>
+        <v>2099460</v>
       </c>
     </row>
     <row r="3" spans="13:18" x14ac:dyDescent="0.25">
@@ -2956,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>255535</v>
+        <v>268269</v>
       </c>
     </row>
     <row r="4" spans="13:18" x14ac:dyDescent="0.25">
@@ -2964,7 +5419,7 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>130860</v>
+        <v>128326</v>
       </c>
     </row>
     <row r="5" spans="13:18" x14ac:dyDescent="0.25">
@@ -2972,7 +5427,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <v>67416</v>
+        <v>68790</v>
       </c>
     </row>
     <row r="6" spans="13:18" x14ac:dyDescent="0.25">
@@ -2980,7 +5435,7 @@
         <v>6</v>
       </c>
       <c r="N6">
-        <v>34826</v>
+        <v>30570</v>
       </c>
     </row>
     <row r="7" spans="13:18" x14ac:dyDescent="0.25">
@@ -2988,7 +5443,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>17764</v>
+        <v>16979</v>
       </c>
     </row>
     <row r="8" spans="13:18" x14ac:dyDescent="0.25">
@@ -2996,7 +5451,7 @@
         <v>8</v>
       </c>
       <c r="N8">
-        <v>9147</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="9" spans="13:18" x14ac:dyDescent="0.25">
@@ -3004,7 +5459,7 @@
         <v>9</v>
       </c>
       <c r="N9">
-        <v>4726</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="10" spans="13:18" x14ac:dyDescent="0.25">
@@ -3012,7 +5467,7 @@
         <v>10</v>
       </c>
       <c r="N10">
-        <v>2351</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="11" spans="13:18" x14ac:dyDescent="0.25">
@@ -3020,7 +5475,7 @@
         <v>11</v>
       </c>
       <c r="N11">
-        <v>1189</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="12" spans="13:18" x14ac:dyDescent="0.25">
@@ -3028,7 +5483,7 @@
         <v>12</v>
       </c>
       <c r="N12">
-        <v>576</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="13:18" x14ac:dyDescent="0.25">
@@ -3044,7 +5499,7 @@
         <v>14</v>
       </c>
       <c r="N14">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="13:18" x14ac:dyDescent="0.25">
@@ -3052,7 +5507,7 @@
         <v>15</v>
       </c>
       <c r="N15">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="13:18" x14ac:dyDescent="0.25">
@@ -3060,7 +5515,7 @@
         <v>16</v>
       </c>
       <c r="N16">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
@@ -3068,7 +5523,7 @@
         <v>17</v>
       </c>
       <c r="N17">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
@@ -3076,7 +5531,7 @@
         <v>18</v>
       </c>
       <c r="N18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
@@ -3084,7 +5539,7 @@
         <v>19</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
@@ -3092,7 +5547,7 @@
         <v>20</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.25">
@@ -3100,7 +5555,7 @@
         <v>21</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.25">
@@ -3116,7 +5571,7 @@
         <v>23</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="13:14" x14ac:dyDescent="0.25">
@@ -3132,12 +5587,11 @@
         <v>25</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3146,7 +5600,7 @@
   <dimension ref="M1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R2"/>
+      <selection activeCell="N1" sqref="N1:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="N1">
-        <v>1016046</v>
+        <v>1055314</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -3173,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <v>515762</v>
+        <v>513473</v>
       </c>
       <c r="P2">
         <f>1048576 * 4</f>
@@ -3181,11 +5635,11 @@
       </c>
       <c r="Q2">
         <f>SUM(N1:N25)</f>
-        <v>2064300</v>
+        <v>2096882</v>
       </c>
       <c r="R2">
         <f>P2-Q2</f>
-        <v>2130004</v>
+        <v>2097422</v>
       </c>
     </row>
     <row r="3" spans="13:18" x14ac:dyDescent="0.25">
@@ -3193,7 +5647,7 @@
         <v>3</v>
       </c>
       <c r="N3">
-        <v>261891</v>
+        <v>265313</v>
       </c>
     </row>
     <row r="4" spans="13:18" x14ac:dyDescent="0.25">
@@ -3201,7 +5655,7 @@
         <v>4</v>
       </c>
       <c r="N4">
-        <v>133225</v>
+        <v>129367</v>
       </c>
     </row>
     <row r="5" spans="13:18" x14ac:dyDescent="0.25">
@@ -3209,7 +5663,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <v>67923</v>
+        <v>67772</v>
       </c>
     </row>
     <row r="6" spans="13:18" x14ac:dyDescent="0.25">
@@ -3217,7 +5671,7 @@
         <v>6</v>
       </c>
       <c r="N6">
-        <v>34294</v>
+        <v>32059</v>
       </c>
     </row>
     <row r="7" spans="13:18" x14ac:dyDescent="0.25">
@@ -3225,7 +5679,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>17327</v>
+        <v>17332</v>
       </c>
     </row>
     <row r="8" spans="13:18" x14ac:dyDescent="0.25">
@@ -3233,7 +5687,7 @@
         <v>8</v>
       </c>
       <c r="N8">
-        <v>8745</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="9" spans="13:18" x14ac:dyDescent="0.25">
@@ -3241,7 +5695,7 @@
         <v>9</v>
       </c>
       <c r="N9">
-        <v>4417</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="10" spans="13:18" x14ac:dyDescent="0.25">
@@ -3249,7 +5703,7 @@
         <v>10</v>
       </c>
       <c r="N10">
-        <v>2321</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="11" spans="13:18" x14ac:dyDescent="0.25">
@@ -3257,7 +5711,7 @@
         <v>11</v>
       </c>
       <c r="N11">
-        <v>1171</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="12" spans="13:18" x14ac:dyDescent="0.25">
@@ -3265,7 +5719,7 @@
         <v>12</v>
       </c>
       <c r="N12">
-        <v>611</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="13:18" x14ac:dyDescent="0.25">
@@ -3273,7 +5727,7 @@
         <v>13</v>
       </c>
       <c r="N13">
-        <v>243</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="13:18" x14ac:dyDescent="0.25">
@@ -3281,7 +5735,7 @@
         <v>14</v>
       </c>
       <c r="N14">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="13:18" x14ac:dyDescent="0.25">
@@ -3289,7 +5743,7 @@
         <v>15</v>
       </c>
       <c r="N15">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="13:18" x14ac:dyDescent="0.25">
@@ -3297,7 +5751,7 @@
         <v>16</v>
       </c>
       <c r="N16">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
@@ -3305,7 +5759,7 @@
         <v>17</v>
       </c>
       <c r="N17">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
@@ -3313,7 +5767,7 @@
         <v>18</v>
       </c>
       <c r="N18">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
@@ -3321,7 +5775,7 @@
         <v>19</v>
       </c>
       <c r="N19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
@@ -3329,7 +5783,7 @@
         <v>20</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.25">
@@ -3337,7 +5791,7 @@
         <v>21</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.25">
@@ -3345,7 +5799,7 @@
         <v>22</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.25">
@@ -3374,7 +5828,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
